--- a/biology/Médecine/Examen_médical/Examen_médical.xlsx
+++ b/biology/Médecine/Examen_médical/Examen_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Examen_m%C3%A9dical</t>
+          <t>Examen_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un examen médical est une procédure de diagnostic réalisée pour des motifs de santé. Par exemple :
 pour diagnostiquer des maladies
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Examen_m%C3%A9dical</t>
+          <t>Examen_médical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,8 +537,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Examens au cabinet de consultation
-Tout examen clinique débute par un interrogatoire du patient, permettant de déterminer :
+          <t>Examens au cabinet de consultation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tout examen clinique débute par un interrogatoire du patient, permettant de déterminer :
 les antécédents :
 personnels : anciennes maladies, anciens examens,
 familiaux : à la recherche de maladies héréditaires,
@@ -550,13 +567,81 @@
 ophtalmoscopie (ophtalmoscope) ;
 un examen de l'ouïe ;
 un toucher rectal ;
-un examen du vagin et du col de l'utérus chez la femme.
-Examens plus invasifs qui requièrent des procédures stériles
-Voir articles : 
+un examen du vagin et du col de l'utérus chez la femme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Examen_médical</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types d'examens médicaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Examens plus invasifs qui requièrent des procédures stériles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voir articles : 
 biopsies
-ponction lombaire
-Examens qui requièrent une analyse de laboratoire
-Voir articles :
+ponction lombaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Examen_médical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types d'examens médicaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Examens qui requièrent une analyse de laboratoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Voir articles :
 examens sanguins, dont
 vitesse de sédimentation
 (hémogramme)
@@ -564,12 +649,80 @@
 tests urinaires
 test d'ADN, test d'ARN
 analyse des selles
-gaz sanguins
-Examens qui requièrent une microscopie
-Voir articles
-microbiologie
-Examens qui requièrent un équipement médical plus sophistiqué
-Voir articles
+gaz sanguins</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Examen_médical</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types d'examens médicaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Examens qui requièrent une microscopie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Voir articles
+microbiologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Examen_médical</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types d'examens médicaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Examens qui requièrent un équipement médical plus sophistiqué</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Voir articles
 radiologie
 lavement baryté
 urographie intra-veineuse
